--- a/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-regional-naf.xlsx
+++ b/published-data/fonds-solidarite/fds-2022-05-12/fonds-solidarite-volet-1-regional-naf.xlsx
@@ -738,13 +738,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>181345</v>
+        <v>181347</v>
       </c>
       <c r="D8" t="n">
         <v>40102</v>
       </c>
       <c r="E8" t="n">
-        <v>649878687</v>
+        <v>650004878</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
@@ -820,13 +820,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>278184</v>
+        <v>278186</v>
       </c>
       <c r="D10" t="n">
-        <v>29587</v>
+        <v>29588</v>
       </c>
       <c r="E10" t="n">
-        <v>1751974896</v>
+        <v>1752125292</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
@@ -4920,13 +4920,13 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>16865</v>
+        <v>16867</v>
       </c>
       <c r="D110" t="n">
         <v>2631</v>
       </c>
       <c r="E110" t="n">
-        <v>25928635</v>
+        <v>25929535</v>
       </c>
       <c r="F110" t="inlineStr">
         <is>
@@ -5125,13 +5125,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>17536</v>
+        <v>17541</v>
       </c>
       <c r="D115" t="n">
         <v>3338</v>
       </c>
       <c r="E115" t="n">
-        <v>38564635</v>
+        <v>38583341</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
@@ -5166,13 +5166,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>5251</v>
+        <v>5253</v>
       </c>
       <c r="D116" t="n">
         <v>745</v>
       </c>
       <c r="E116" t="n">
-        <v>15506389</v>
+        <v>15510059</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
@@ -5207,13 +5207,13 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>19691</v>
+        <v>19697</v>
       </c>
       <c r="D117" t="n">
         <v>2228</v>
       </c>
       <c r="E117" t="n">
-        <v>56394544</v>
+        <v>56402512</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
@@ -5371,13 +5371,13 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>5960</v>
+        <v>5961</v>
       </c>
       <c r="D121" t="n">
         <v>1306</v>
       </c>
       <c r="E121" t="n">
-        <v>11507364</v>
+        <v>11511893</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
@@ -5781,13 +5781,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>7752</v>
+        <v>7756</v>
       </c>
       <c r="D131" t="n">
         <v>1115</v>
       </c>
       <c r="E131" t="n">
-        <v>16740454</v>
+        <v>16748126</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -5904,13 +5904,13 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>5664</v>
+        <v>5665</v>
       </c>
       <c r="D134" t="n">
         <v>599</v>
       </c>
       <c r="E134" t="n">
-        <v>17026661</v>
+        <v>17027467</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -6068,13 +6068,13 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>2836</v>
+        <v>2837</v>
       </c>
       <c r="D138" t="n">
         <v>448</v>
       </c>
       <c r="E138" t="n">
-        <v>6569152</v>
+        <v>6576697</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
@@ -6847,13 +6847,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>21201</v>
+        <v>21202</v>
       </c>
       <c r="D157" t="n">
         <v>4283</v>
       </c>
       <c r="E157" t="n">
-        <v>77967383</v>
+        <v>77993905</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
@@ -7011,13 +7011,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>44657</v>
+        <v>44658</v>
       </c>
       <c r="D161" t="n">
         <v>5336</v>
       </c>
       <c r="E161" t="n">
-        <v>146109216</v>
+        <v>146110447</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
@@ -7298,13 +7298,13 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>284900</v>
+        <v>284906</v>
       </c>
       <c r="D168" t="n">
         <v>58119</v>
       </c>
       <c r="E168" t="n">
-        <v>1207356845</v>
+        <v>1207681746</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
@@ -7380,13 +7380,13 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>367218</v>
+        <v>367228</v>
       </c>
       <c r="D170" t="n">
         <v>38105</v>
       </c>
       <c r="E170" t="n">
-        <v>2843163577</v>
+        <v>2843315793</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -7421,13 +7421,13 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>115084</v>
+        <v>115091</v>
       </c>
       <c r="D171" t="n">
         <v>20262</v>
       </c>
       <c r="E171" t="n">
-        <v>444290669</v>
+        <v>444562942</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
@@ -7544,13 +7544,13 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>357129</v>
+        <v>357141</v>
       </c>
       <c r="D174" t="n">
-        <v>69785</v>
+        <v>69786</v>
       </c>
       <c r="E174" t="n">
-        <v>1015806162</v>
+        <v>1015883833</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -7585,13 +7585,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>125481</v>
+        <v>125491</v>
       </c>
       <c r="D175" t="n">
         <v>18099</v>
       </c>
       <c r="E175" t="n">
-        <v>809697991</v>
+        <v>810671097</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -7749,13 +7749,13 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>235627</v>
+        <v>235636</v>
       </c>
       <c r="D179" t="n">
         <v>29335</v>
       </c>
       <c r="E179" t="n">
-        <v>811641567</v>
+        <v>811898627</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
@@ -8036,13 +8036,13 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>21927</v>
+        <v>21930</v>
       </c>
       <c r="D186" t="n">
         <v>5228</v>
       </c>
       <c r="E186" t="n">
-        <v>39904691</v>
+        <v>40006767</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -8118,13 +8118,13 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>19685</v>
+        <v>19695</v>
       </c>
       <c r="D188" t="n">
         <v>2625</v>
       </c>
       <c r="E188" t="n">
-        <v>65970654</v>
+        <v>65984473</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
@@ -8282,13 +8282,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>7455</v>
+        <v>7457</v>
       </c>
       <c r="D192" t="n">
         <v>1870</v>
       </c>
       <c r="E192" t="n">
-        <v>16969326</v>
+        <v>17063682</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -8323,13 +8323,13 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>5342</v>
+        <v>5343</v>
       </c>
       <c r="D193" t="n">
         <v>1046</v>
       </c>
       <c r="E193" t="n">
-        <v>27691588</v>
+        <v>27693629</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -8446,13 +8446,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>7393</v>
+        <v>7396</v>
       </c>
       <c r="D196" t="n">
         <v>946</v>
       </c>
       <c r="E196" t="n">
-        <v>20466364</v>
+        <v>20644396</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
@@ -8733,13 +8733,13 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>13090</v>
+        <v>13094</v>
       </c>
       <c r="D203" t="n">
         <v>2290</v>
       </c>
       <c r="E203" t="n">
-        <v>32919097</v>
+        <v>32950273</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -8815,13 +8815,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>11111</v>
+        <v>11114</v>
       </c>
       <c r="D205" t="n">
         <v>1314</v>
       </c>
       <c r="E205" t="n">
-        <v>43981007</v>
+        <v>43983889</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -9143,13 +9143,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>3628</v>
+        <v>3629</v>
       </c>
       <c r="D213" t="n">
         <v>402</v>
       </c>
       <c r="E213" t="n">
-        <v>11063625</v>
+        <v>11065015</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -10947,13 +10947,13 @@
         </is>
       </c>
       <c r="C257" t="n">
-        <v>182546</v>
+        <v>182547</v>
       </c>
       <c r="D257" t="n">
         <v>20359</v>
       </c>
       <c r="E257" t="n">
-        <v>1063759967</v>
+        <v>1063782199</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -10988,13 +10988,13 @@
         </is>
       </c>
       <c r="C258" t="n">
-        <v>15135</v>
+        <v>15139</v>
       </c>
       <c r="D258" t="n">
         <v>2998</v>
       </c>
       <c r="E258" t="n">
-        <v>40650535</v>
+        <v>40672103</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -11316,13 +11316,13 @@
         </is>
       </c>
       <c r="C266" t="n">
-        <v>71660</v>
+        <v>71662</v>
       </c>
       <c r="D266" t="n">
         <v>9133</v>
       </c>
       <c r="E266" t="n">
-        <v>219422275</v>
+        <v>219427243</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -12423,13 +12423,13 @@
         </is>
       </c>
       <c r="C293" t="n">
-        <v>61657</v>
+        <v>61659</v>
       </c>
       <c r="D293" t="n">
         <v>14543</v>
       </c>
       <c r="E293" t="n">
-        <v>194839117</v>
+        <v>194850617</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -12505,13 +12505,13 @@
         </is>
       </c>
       <c r="C295" t="n">
-        <v>91330</v>
+        <v>91331</v>
       </c>
       <c r="D295" t="n">
         <v>9956</v>
       </c>
       <c r="E295" t="n">
-        <v>552903537</v>
+        <v>552907076</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -12997,13 +12997,13 @@
         </is>
       </c>
       <c r="C307" t="n">
-        <v>39617</v>
+        <v>39618</v>
       </c>
       <c r="D307" t="n">
         <v>8924</v>
       </c>
       <c r="E307" t="n">
-        <v>95225547</v>
+        <v>95374311</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
@@ -13243,13 +13243,13 @@
         </is>
       </c>
       <c r="C313" t="n">
-        <v>220629</v>
+        <v>220630</v>
       </c>
       <c r="D313" t="n">
         <v>23419</v>
       </c>
       <c r="E313" t="n">
-        <v>1370587363</v>
+        <v>1370608294</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
@@ -13612,13 +13612,13 @@
         </is>
       </c>
       <c r="C322" t="n">
-        <v>81158</v>
+        <v>81159</v>
       </c>
       <c r="D322" t="n">
         <v>9702</v>
       </c>
       <c r="E322" t="n">
-        <v>254472076</v>
+        <v>254507703</v>
       </c>
       <c r="F322" t="inlineStr">
         <is>
